--- a/SRC/HMIAlarms.xlsx
+++ b/SRC/HMIAlarms.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DiscreteAlarms" sheetId="1" r:id="Rc6396ca8a02f4fac"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AnalogAlarms" sheetId="2" r:id="R6ff2746b758143d5"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Limits" sheetId="3" r:id="R8bb01e5fb8484977"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DiscreteAlarms" sheetId="1" r:id="R373d90f89c694c0c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AnalogAlarms" sheetId="2" r:id="R68cb12aea4624678"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Limits" sheetId="3" r:id="R53443347751149ab"/>
   </x:sheets>
 </x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="76">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="97">
   <x:si>
     <x:t>ID</x:t>
   </x:si>
@@ -87,91 +87,91 @@
     <x:t>Discrete_alarm_3</x:t>
   </x:si>
   <x:si>
-    <x:t>Ventilator 1 Störung</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_Alarm_Ventilator 1 Störung</x:t>
+    <x:t>Kühlturm 1 Ventilator Störung</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_KT 1 Ventilator Störung</x:t>
   </x:si>
   <x:si>
     <x:t>Discrete_alarm_4</x:t>
   </x:si>
   <x:si>
-    <x:t>Ventilator 1 Reparaturschalter ein</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_Alarm_Ventilator 1 Reparaturschalter ein</x:t>
+    <x:t>Kühlturm 1 Ventilator Reparaturschalter aus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_KT 1 Ventilator RS</x:t>
   </x:si>
   <x:si>
     <x:t>Discrete_alarm_5</x:t>
   </x:si>
   <x:si>
-    <x:t>Ventilator 2 Störung</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_Alarm_Ventilator 2 Störung</x:t>
+    <x:t>Kühlturm 2 Ventilator Störung</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_KT 2 Ventilator Störung</x:t>
   </x:si>
   <x:si>
     <x:t>Discrete_alarm_6</x:t>
   </x:si>
   <x:si>
-    <x:t>Ventilator 2 Reparaturschalter ein</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_Alarm_Ventilator 2 Reparaturschalter ein</x:t>
+    <x:t>Kühlturm 2 Ventilator Reparaturschalter aus</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_KT 2 Ventilator RS</x:t>
   </x:si>
   <x:si>
     <x:t>Discrete_alarm_7</x:t>
   </x:si>
   <x:si>
-    <x:t>Störung Pumpe 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_Alarm_Störung Pumpe 1</x:t>
+    <x:t>Werkspumpe 1 Störung</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_Werkspumpe 1 Störung</x:t>
   </x:si>
   <x:si>
     <x:t>Discrete_alarm_8</x:t>
   </x:si>
   <x:si>
-    <x:t>Störung Pumpe 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_Alarm_Störung Pumpe 2</x:t>
+    <x:t>Werkspumpe 2 Störung</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_Werkspumpe 2 Störung</x:t>
   </x:si>
   <x:si>
     <x:t>Discrete_alarm_9</x:t>
   </x:si>
   <x:si>
-    <x:t>Motorschutzschalter Pumpe 3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_Alarm_Motorschutzschalter Pumpe 3 OK</x:t>
+    <x:t>Kühlwasserpumpe 1 Motorschutzschalter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_Kühlwasserpumpe 1 MSS OK</x:t>
   </x:si>
   <x:si>
     <x:t>Discrete_alarm_10</x:t>
   </x:si>
   <x:si>
-    <x:t>Motorschutzschalter Pumpe 4</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_Alarm_Motorschutzschalter Pumpe 4 OK</x:t>
+    <x:t>Kühlwasserpumpe 2 Motorschutzschalter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_Kühlwasserpumpe 2 MSS OK</x:t>
   </x:si>
   <x:si>
     <x:t>Discrete_alarm_11</x:t>
   </x:si>
   <x:si>
-    <x:t>Motorschutzschalter Hebeanlage 1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_Alarm_Motorschutzschalter Hebeanlage 1</x:t>
+    <x:t>Ofenpumpe 1 Motorschutzschalter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_Ofenpumpe 1 MSS OK</x:t>
   </x:si>
   <x:si>
     <x:t>Discrete_alarm_12</x:t>
   </x:si>
   <x:si>
-    <x:t>Motorschutzschalter Hebeanlage 2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Main_DB_AlwaysRUN_Alarm_Motorschutzschalter Hebeanlage 2</x:t>
+    <x:t>Ofenpumpe 2 Motorschutzschalter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_Ofenpumpe 2 MSS OK</x:t>
   </x:si>
   <x:si>
     <x:t>Discrete_alarm_13</x:t>
@@ -180,7 +180,70 @@
     <x:t>Vorlauftemperatur Werk zu hoch</x:t>
   </x:si>
   <x:si>
-    <x:t>Main_DB_AlwaysRUN_Alarm_VorlauftemperaturWerk</x:t>
+    <x:t>Main_DB_AlwaysRUN_Alarm_FlowTemperaturePlant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Discrete_alarm_14</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vorlauftemperatur Ofenkühlung zu hoch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_FlowTemperatureFurnace</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Discrete_alarm_15</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hebeanlage Filter 1 Differenzdruck zu hoch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_HA 1 Differenzdruck</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Discrete_alarm_16</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Hebeanlage Filter 2 Differenzdruck zu hoch</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_HA 2 Differenzdruck</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Discrete_alarm_17</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wasserstation Ausgleichsbehälter läuft trocken</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_SurgeTankRunDry</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Discrete_alarm_18</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wasserstation Ausgleichsbehälter läuft über</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_SurgeTankOverflow</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Discrete_alarm_19</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kühlturm 1 Sprührohr öffnen Timeout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_SprayTubeOpenTimeout1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Discrete_alarm_20</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kühlturm 2 Sprührohr öffnen Timeout</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Main_DB_AlwaysRUN_Alarm_SprayTubeOpenTimeout2</x:t>
   </x:si>
   <x:si>
     <x:t>Delay value</x:t>
@@ -219,7 +282,7 @@
     <x:t>Warnings</x:t>
   </x:si>
   <x:si>
-    <x:t>Main_DB_Vorlauftemperatur</x:t>
+    <x:t>Main_DB_FlowTemperaturePlant</x:t>
   </x:si>
   <x:si>
     <x:t>Millisecond</x:t>
@@ -907,6 +970,314 @@
         <x:v>19</x:v>
       </x:c>
     </x:row>
+    <x:row r="15">
+      <x:c r="A15" s="0" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B15" s="0" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C15" s="0" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="D15" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E15" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F15" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="G15" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H15" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I15" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J15" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="K15" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L15" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M15" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="N15" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16">
+      <x:c r="A16" s="0" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="B16" s="0" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C16" s="0" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="D16" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E16" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F16" s="0" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="G16" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H16" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I16" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J16" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="K16" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L16" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M16" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="N16" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17">
+      <x:c r="A17" s="0" t="n">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="B17" s="0" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="C17" s="0" t="s">
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="D17" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E17" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F17" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="G17" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H17" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I17" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J17" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="K17" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L17" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M17" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="N17" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18">
+      <x:c r="A18" s="0" t="n">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="B18" s="0" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C18" s="0" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="D18" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E18" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F18" s="0" t="s">
+        <x:v>68</x:v>
+      </x:c>
+      <x:c r="G18" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H18" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I18" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J18" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="K18" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L18" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M18" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="N18" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19">
+      <x:c r="A19" s="0" t="n">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="B19" s="0" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C19" s="0" t="s">
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="D19" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E19" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F19" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="G19" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H19" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I19" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J19" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="K19" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L19" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M19" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="N19" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="20">
+      <x:c r="A20" s="0" t="n">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="B20" s="0" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C20" s="0" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="D20" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E20" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F20" s="0" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="G20" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H20" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I20" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J20" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="K20" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L20" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M20" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="N20" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="21">
+      <x:c r="A21" s="0" t="n">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B21" s="0" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="C21" s="0" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="D21" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="E21" s="0" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="F21" s="0" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="G21" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H21" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I21" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="J21" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="K21" s="0" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="L21" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="M21" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="N21" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
 </x:worksheet>
 </file>
@@ -934,10 +1305,10 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="G1" s="0" t="s">
-        <x:v>57</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="H1" s="0" t="s">
-        <x:v>58</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="I1" s="0" t="s">
         <x:v>11</x:v>
@@ -954,25 +1325,25 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>66</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>67</x:v>
+        <x:v>88</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>68</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>69</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="G2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>70</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
         <x:v>19</x:v>
@@ -993,25 +1364,25 @@
   <x:sheetData>
     <x:row r="1">
       <x:c r="A1" s="0" t="s">
-        <x:v>59</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
-        <x:v>60</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C1" s="0" t="s">
-        <x:v>61</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="D1" s="0" t="s">
-        <x:v>62</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="E1" s="0" t="s">
-        <x:v>63</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="F1" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="G1" s="0" t="s">
-        <x:v>65</x:v>
+        <x:v>86</x:v>
       </x:c>
     </x:row>
     <x:row r="2">
@@ -1019,22 +1390,22 @@
         <x:v>1</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>71</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>72</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>73</x:v>
+        <x:v>94</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>74</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="F2" s="0" t="n">
         <x:v>0</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>75</x:v>
+        <x:v>96</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/SRC/HMIAlarms.xlsx
+++ b/SRC/HMIAlarms.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DiscreteAlarms" sheetId="1" r:id="R373d90f89c694c0c"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AnalogAlarms" sheetId="2" r:id="R68cb12aea4624678"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Limits" sheetId="3" r:id="R53443347751149ab"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DiscreteAlarms" sheetId="1" r:id="R9a890ea0d8cd4154"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AnalogAlarms" sheetId="2" r:id="Rafaf3174aeb143fb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Limits" sheetId="3" r:id="R6791112368374307"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -66,7 +66,7 @@
     <x:t>Errors</x:t>
   </x:si>
   <x:si>
-    <x:t>Main_DB_AlwaysRUN_Alarm_Steuerspannung Ein</x:t>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sCvOff</x:t>
   </x:si>
   <x:si>
     <x:t>&lt;No value&gt;</x:t>
@@ -81,7 +81,7 @@
     <x:t>Sicherung Ausgänge</x:t>
   </x:si>
   <x:si>
-    <x:t>Main_DB_AlwaysRUN_Alarm_Sicherung Ausgänge OK</x:t>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sFuseOutputsErr</x:t>
   </x:si>
   <x:si>
     <x:t>Discrete_alarm_3</x:t>
@@ -90,7 +90,7 @@
     <x:t>Kühlturm 1 Ventilator Störung</x:t>
   </x:si>
   <x:si>
-    <x:t>Main_DB_AlwaysRUN_Alarm_KT 1 Ventilator Störung</x:t>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sCt1FanErr</x:t>
   </x:si>
   <x:si>
     <x:t>Discrete_alarm_4</x:t>
@@ -99,7 +99,7 @@
     <x:t>Kühlturm 1 Ventilator Reparaturschalter aus</x:t>
   </x:si>
   <x:si>
-    <x:t>Main_DB_AlwaysRUN_Alarm_KT 1 Ventilator RS</x:t>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sCt1RepairSwitchOff</x:t>
   </x:si>
   <x:si>
     <x:t>Discrete_alarm_5</x:t>
@@ -108,7 +108,7 @@
     <x:t>Kühlturm 2 Ventilator Störung</x:t>
   </x:si>
   <x:si>
-    <x:t>Main_DB_AlwaysRUN_Alarm_KT 2 Ventilator Störung</x:t>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sCt2FanErr</x:t>
   </x:si>
   <x:si>
     <x:t>Discrete_alarm_6</x:t>
@@ -117,7 +117,7 @@
     <x:t>Kühlturm 2 Ventilator Reparaturschalter aus</x:t>
   </x:si>
   <x:si>
-    <x:t>Main_DB_AlwaysRUN_Alarm_KT 2 Ventilator RS</x:t>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sCt2RepairSwitchOff</x:t>
   </x:si>
   <x:si>
     <x:t>Discrete_alarm_7</x:t>
@@ -126,7 +126,7 @@
     <x:t>Werkspumpe 1 Störung</x:t>
   </x:si>
   <x:si>
-    <x:t>Main_DB_AlwaysRUN_Alarm_Werkspumpe 1 Störung</x:t>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sPumpPlant1Err</x:t>
   </x:si>
   <x:si>
     <x:t>Discrete_alarm_8</x:t>
@@ -135,7 +135,7 @@
     <x:t>Werkspumpe 2 Störung</x:t>
   </x:si>
   <x:si>
-    <x:t>Main_DB_AlwaysRUN_Alarm_Werkspumpe 2 Störung</x:t>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sPumpPlant2Err</x:t>
   </x:si>
   <x:si>
     <x:t>Discrete_alarm_9</x:t>
@@ -144,7 +144,7 @@
     <x:t>Kühlwasserpumpe 1 Motorschutzschalter</x:t>
   </x:si>
   <x:si>
-    <x:t>Main_DB_AlwaysRUN_Alarm_Kühlwasserpumpe 1 MSS OK</x:t>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sPumpCoolWater1Err</x:t>
   </x:si>
   <x:si>
     <x:t>Discrete_alarm_10</x:t>
@@ -153,7 +153,7 @@
     <x:t>Kühlwasserpumpe 2 Motorschutzschalter</x:t>
   </x:si>
   <x:si>
-    <x:t>Main_DB_AlwaysRUN_Alarm_Kühlwasserpumpe 2 MSS OK</x:t>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sPumpCoolWater2Err</x:t>
   </x:si>
   <x:si>
     <x:t>Discrete_alarm_11</x:t>
@@ -162,7 +162,7 @@
     <x:t>Ofenpumpe 1 Motorschutzschalter</x:t>
   </x:si>
   <x:si>
-    <x:t>Main_DB_AlwaysRUN_Alarm_Ofenpumpe 1 MSS OK</x:t>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sPumpFurnace1Err</x:t>
   </x:si>
   <x:si>
     <x:t>Discrete_alarm_12</x:t>
@@ -171,7 +171,7 @@
     <x:t>Ofenpumpe 2 Motorschutzschalter</x:t>
   </x:si>
   <x:si>
-    <x:t>Main_DB_AlwaysRUN_Alarm_Ofenpumpe 2 MSS OK</x:t>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sPumpFurnace2Err</x:t>
   </x:si>
   <x:si>
     <x:t>Discrete_alarm_13</x:t>
@@ -180,7 +180,7 @@
     <x:t>Vorlauftemperatur Werk zu hoch</x:t>
   </x:si>
   <x:si>
-    <x:t>Main_DB_AlwaysRUN_Alarm_FlowTemperaturePlant</x:t>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sFlowTemperaturePlantHot</x:t>
   </x:si>
   <x:si>
     <x:t>Discrete_alarm_14</x:t>
@@ -189,7 +189,7 @@
     <x:t>Vorlauftemperatur Ofenkühlung zu hoch</x:t>
   </x:si>
   <x:si>
-    <x:t>Main_DB_AlwaysRUN_Alarm_FlowTemperatureFurnace</x:t>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sFlowTemperatureFurnaceHot</x:t>
   </x:si>
   <x:si>
     <x:t>Discrete_alarm_15</x:t>
@@ -198,7 +198,7 @@
     <x:t>Hebeanlage Filter 1 Differenzdruck zu hoch</x:t>
   </x:si>
   <x:si>
-    <x:t>Main_DB_AlwaysRUN_Alarm_HA 1 Differenzdruck</x:t>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sPressureDeltaPerc1</x:t>
   </x:si>
   <x:si>
     <x:t>Discrete_alarm_16</x:t>
@@ -207,7 +207,7 @@
     <x:t>Hebeanlage Filter 2 Differenzdruck zu hoch</x:t>
   </x:si>
   <x:si>
-    <x:t>Main_DB_AlwaysRUN_Alarm_HA 2 Differenzdruck</x:t>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sPressureDeltaPerc2</x:t>
   </x:si>
   <x:si>
     <x:t>Discrete_alarm_17</x:t>
@@ -216,7 +216,7 @@
     <x:t>Wasserstation Ausgleichsbehälter läuft trocken</x:t>
   </x:si>
   <x:si>
-    <x:t>Main_DB_AlwaysRUN_Alarm_SurgeTankRunDry</x:t>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sSurgeTankRunDry</x:t>
   </x:si>
   <x:si>
     <x:t>Discrete_alarm_18</x:t>
@@ -225,7 +225,7 @@
     <x:t>Wasserstation Ausgleichsbehälter läuft über</x:t>
   </x:si>
   <x:si>
-    <x:t>Main_DB_AlwaysRUN_Alarm_SurgeTankOverflow</x:t>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sSurgeTankOverflow</x:t>
   </x:si>
   <x:si>
     <x:t>Discrete_alarm_19</x:t>
@@ -234,7 +234,7 @@
     <x:t>Kühlturm 1 Sprührohr öffnen Timeout</x:t>
   </x:si>
   <x:si>
-    <x:t>Main_DB_AlwaysRUN_Alarm_SprayTubeOpenTimeout1</x:t>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sSprayPipeOpenTimeout1</x:t>
   </x:si>
   <x:si>
     <x:t>Discrete_alarm_20</x:t>
@@ -243,7 +243,7 @@
     <x:t>Kühlturm 2 Sprührohr öffnen Timeout</x:t>
   </x:si>
   <x:si>
-    <x:t>Main_DB_AlwaysRUN_Alarm_SprayTubeOpenTimeout2</x:t>
+    <x:t>Main_DB_AlwaysRUN_Alarm_sSprayPipeOpenTimeout2</x:t>
   </x:si>
   <x:si>
     <x:t>Delay value</x:t>
